--- a/画面設計/DB設計一覧.xlsx
+++ b/画面設計/DB設計一覧.xlsx
@@ -12,14 +12,14 @@
   <calcPr/>
   <extLst>
     <ext uri="GoogleSheetsCustomDataVersion2">
-      <go:sheetsCustomData xmlns:go="http://customooxmlschemas.google.com/" r:id="rId8" roundtripDataChecksum="Abba2uaEiuQ2KNGOO4xY4wdYDBSgUw9Iqc7PQaM+dO0="/>
+      <go:sheetsCustomData xmlns:go="http://customooxmlschemas.google.com/" r:id="rId8" roundtripDataChecksum="MHIG1PUqu4Jcz0GUZLt3kpPquWCJof8B++B/3Nj+GhM="/>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="254" uniqueCount="178">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="248" uniqueCount="178">
   <si>
     <t>アプリ課題(2025）</t>
   </si>
@@ -168,15 +168,6 @@
     <t>夕食ID</t>
   </si>
   <si>
-    <t>（ユーザ閲覧履歴テーブル）</t>
-  </si>
-  <si>
-    <t>※履歴時にログインユーザに紐づく、直近1日分のものを取る</t>
-  </si>
-  <si>
-    <t>cookieに料理IDに保管させる（Androidでできるか）</t>
-  </si>
-  <si>
     <t>（レシピアレルギーテーブル)</t>
   </si>
   <si>
@@ -190,6 +181,9 @@
   </si>
   <si>
     <t>料理名</t>
+  </si>
+  <si>
+    <t>画像</t>
   </si>
   <si>
     <r>
@@ -237,6 +231,9 @@
     <t>カルボナーラ</t>
   </si>
   <si>
+    <t>/Users/pic/Peperoncino.jpeg</t>
+  </si>
+  <si>
     <t>パスタ:100g　にんにく：2片</t>
   </si>
   <si>
@@ -247,6 +244,9 @@
   </si>
   <si>
     <t>唐揚げ</t>
+  </si>
+  <si>
+    <t>/Users/pic/Karaage.jpeg</t>
   </si>
   <si>
     <t>鶏肉300g</t>
@@ -639,7 +639,7 @@
     <numFmt numFmtId="165" formatCode="yyyy/m/d\ h:mm:ss"/>
     <numFmt numFmtId="166" formatCode="yyyy/mm/dd\ h:mm:ss"/>
   </numFmts>
-  <fonts count="9">
+  <fonts count="8">
     <font>
       <sz val="11.0"/>
       <color theme="1"/>
@@ -676,11 +676,6 @@
       <sz val="11.0"/>
       <color theme="1"/>
       <name val="Calibri"/>
-    </font>
-    <font>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="11">
@@ -818,7 +813,7 @@
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
   </cellStyleXfs>
-  <cellXfs count="40">
+  <cellXfs count="39">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="center" wrapText="0"/>
     </xf>
@@ -902,9 +897,6 @@
     </xf>
     <xf borderId="4" fillId="0" fontId="7" numFmtId="166" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
       <alignment vertical="center"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="8" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0" vertical="center"/>
     </xf>
     <xf borderId="4" fillId="4" fontId="7" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment vertical="center"/>
@@ -2715,236 +2707,192 @@
         <v>45293.604166666664</v>
       </c>
     </row>
-    <row r="17">
-      <c r="A17" s="24" t="s">
+    <row r="18">
+      <c r="A18" s="24" t="s">
         <v>49</v>
       </c>
-      <c r="D17" s="24" t="s">
+      <c r="D18" s="24" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="18">
-      <c r="B18" s="19" t="s">
-        <v>15</v>
-      </c>
-      <c r="C18" s="19" t="s">
-        <v>44</v>
-      </c>
-      <c r="D18" s="19" t="s">
+    <row r="19">
+      <c r="B19" s="19" t="s">
         <v>42</v>
       </c>
-      <c r="E18" s="19" t="s">
+      <c r="C19" s="19" t="s">
+        <v>51</v>
+      </c>
+      <c r="D19" s="19" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="19">
-      <c r="B19" s="21" t="s">
-        <v>32</v>
-      </c>
-      <c r="C19" s="21">
-        <v>2.0240102E7</v>
-      </c>
-      <c r="D19" s="21">
-        <v>18.0</v>
-      </c>
-      <c r="E19" s="27">
+    <row r="20">
+      <c r="B20" s="21">
+        <v>1.0</v>
+      </c>
+      <c r="C20" s="21">
+        <v>1.0</v>
+      </c>
+      <c r="D20" s="27">
         <v>45293.604166666664</v>
       </c>
-      <c r="F19" s="28" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="20">
-      <c r="B20" s="21" t="s">
-        <v>32</v>
-      </c>
-      <c r="C20" s="21">
-        <v>2.0240901E7</v>
-      </c>
-      <c r="D20" s="21">
-        <v>234.0</v>
-      </c>
-      <c r="E20" s="27">
+    </row>
+    <row r="21">
+      <c r="B21" s="21">
+        <v>1.0</v>
+      </c>
+      <c r="C21" s="21">
+        <v>4.0</v>
+      </c>
+      <c r="D21" s="27">
         <v>45293.604166666664</v>
       </c>
     </row>
-    <row r="23">
-      <c r="A23" s="24" t="s">
+    <row r="22">
+      <c r="B22" s="21">
+        <v>1.0</v>
+      </c>
+      <c r="C22" s="21">
+        <v>5.0</v>
+      </c>
+      <c r="D22" s="27">
+        <v>45293.604166666664</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="25" t="s">
         <v>52</v>
       </c>
-      <c r="D23" s="24" t="s">
+    </row>
+    <row r="25">
+      <c r="B25" s="28" t="s">
+        <v>42</v>
+      </c>
+      <c r="C25" s="28" t="s">
         <v>53</v>
       </c>
-    </row>
-    <row r="24">
-      <c r="B24" s="19" t="s">
-        <v>42</v>
-      </c>
-      <c r="C24" s="19" t="s">
+      <c r="D25" s="29" t="s">
         <v>54</v>
       </c>
-      <c r="D24" s="19" t="s">
+      <c r="E25" s="29" t="s">
+        <v>55</v>
+      </c>
+      <c r="F25" s="28" t="s">
+        <v>56</v>
+      </c>
+      <c r="G25" s="28" t="s">
+        <v>57</v>
+      </c>
+      <c r="H25" s="28" t="s">
+        <v>58</v>
+      </c>
+      <c r="I25" s="30" t="s">
+        <v>59</v>
+      </c>
+      <c r="J25" s="30" t="s">
+        <v>60</v>
+      </c>
+      <c r="K25" s="30" t="s">
+        <v>61</v>
+      </c>
+      <c r="L25" s="28" t="s">
+        <v>62</v>
+      </c>
+      <c r="M25" s="28" t="s">
+        <v>63</v>
+      </c>
+      <c r="N25" s="28" t="s">
+        <v>45</v>
+      </c>
+      <c r="O25" s="19" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="25">
-      <c r="B25" s="21">
-        <v>1.0</v>
-      </c>
-      <c r="C25" s="21">
-        <v>1.0</v>
-      </c>
-      <c r="D25" s="27">
-        <v>45293.604166666664</v>
-      </c>
-    </row>
-    <row r="26">
+    <row r="26" ht="44.25" customHeight="1">
       <c r="B26" s="21">
         <v>1.0</v>
       </c>
-      <c r="C26" s="21">
-        <v>4.0</v>
-      </c>
-      <c r="D26" s="27">
+      <c r="C26" s="21" t="s">
+        <v>64</v>
+      </c>
+      <c r="D26" s="31" t="s">
+        <v>65</v>
+      </c>
+      <c r="E26" s="21">
+        <v>1.0</v>
+      </c>
+      <c r="F26" s="21">
+        <v>2.0</v>
+      </c>
+      <c r="G26" s="21">
+        <v>3.0</v>
+      </c>
+      <c r="H26" s="21">
+        <v>6.0</v>
+      </c>
+      <c r="I26" s="31" t="s">
+        <v>66</v>
+      </c>
+      <c r="J26" s="31" t="s">
+        <v>67</v>
+      </c>
+      <c r="K26" s="31" t="s">
+        <v>68</v>
+      </c>
+      <c r="L26" s="21">
+        <v>10.0</v>
+      </c>
+      <c r="M26" s="21">
+        <v>1.0</v>
+      </c>
+      <c r="N26" s="21">
+        <v>1200.0</v>
+      </c>
+      <c r="O26" s="27">
         <v>45293.604166666664</v>
       </c>
     </row>
     <row r="27">
       <c r="B27" s="21">
-        <v>1.0</v>
-      </c>
-      <c r="C27" s="21">
+        <v>2.0</v>
+      </c>
+      <c r="C27" s="21" t="s">
+        <v>69</v>
+      </c>
+      <c r="D27" s="31" t="s">
+        <v>70</v>
+      </c>
+      <c r="E27" s="21">
+        <v>2.0</v>
+      </c>
+      <c r="F27" s="21">
+        <v>3.0</v>
+      </c>
+      <c r="G27" s="21">
         <v>5.0</v>
       </c>
-      <c r="D27" s="27">
-        <v>45293.604166666664</v>
-      </c>
-    </row>
-    <row r="29">
-      <c r="A29" s="25" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="30">
-      <c r="B30" s="29" t="s">
-        <v>42</v>
-      </c>
-      <c r="C30" s="29" t="s">
-        <v>56</v>
-      </c>
-      <c r="D30" s="30" t="s">
-        <v>57</v>
-      </c>
-      <c r="E30" s="29" t="s">
-        <v>58</v>
-      </c>
-      <c r="F30" s="29" t="s">
-        <v>59</v>
-      </c>
-      <c r="G30" s="29" t="s">
-        <v>60</v>
-      </c>
-      <c r="H30" s="31" t="s">
-        <v>61</v>
-      </c>
-      <c r="I30" s="31" t="s">
-        <v>62</v>
-      </c>
-      <c r="J30" s="31" t="s">
-        <v>63</v>
-      </c>
-      <c r="K30" s="29" t="s">
-        <v>64</v>
-      </c>
-      <c r="L30" s="29" t="s">
-        <v>65</v>
-      </c>
-      <c r="M30" s="29" t="s">
-        <v>45</v>
-      </c>
-      <c r="N30" s="19" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="31" ht="44.25" customHeight="1">
-      <c r="B31" s="21">
-        <v>1.0</v>
-      </c>
-      <c r="C31" s="21" t="s">
-        <v>66</v>
-      </c>
-      <c r="D31" s="21">
-        <v>1.0</v>
-      </c>
-      <c r="E31" s="21">
-        <v>2.0</v>
-      </c>
-      <c r="F31" s="21">
+      <c r="H27" s="21">
         <v>3.0</v>
       </c>
-      <c r="G31" s="21">
-        <v>6.0</v>
-      </c>
-      <c r="H31" s="32" t="s">
-        <v>67</v>
-      </c>
-      <c r="I31" s="32" t="s">
-        <v>68</v>
-      </c>
-      <c r="J31" s="32" t="s">
-        <v>69</v>
-      </c>
-      <c r="K31" s="21">
-        <v>10.0</v>
-      </c>
-      <c r="L31" s="21">
-        <v>1.0</v>
-      </c>
-      <c r="M31" s="21">
-        <v>1200.0</v>
-      </c>
-      <c r="N31" s="27">
-        <v>45293.604166666664</v>
-      </c>
-    </row>
-    <row r="32">
-      <c r="B32" s="21">
-        <v>2.0</v>
-      </c>
-      <c r="C32" s="21" t="s">
-        <v>70</v>
-      </c>
-      <c r="D32" s="21">
-        <v>2.0</v>
-      </c>
-      <c r="E32" s="21">
+      <c r="I27" s="22" t="s">
+        <v>71</v>
+      </c>
+      <c r="J27" s="22" t="s">
+        <v>72</v>
+      </c>
+      <c r="K27" s="22" t="s">
+        <v>73</v>
+      </c>
+      <c r="L27" s="21">
+        <v>40.0</v>
+      </c>
+      <c r="M27" s="21">
         <v>3.0</v>
       </c>
-      <c r="F32" s="21">
-        <v>5.0</v>
-      </c>
-      <c r="G32" s="21">
-        <v>3.0</v>
-      </c>
-      <c r="H32" s="22" t="s">
-        <v>71</v>
-      </c>
-      <c r="I32" s="22" t="s">
-        <v>72</v>
-      </c>
-      <c r="J32" s="22" t="s">
-        <v>73</v>
-      </c>
-      <c r="K32" s="21">
-        <v>40.0</v>
-      </c>
-      <c r="L32" s="21">
-        <v>3.0</v>
-      </c>
-      <c r="M32" s="21">
+      <c r="N27" s="21">
         <v>500.0</v>
       </c>
-      <c r="N32" s="27">
+      <c r="O27" s="27">
         <v>45293.604166666664</v>
       </c>
     </row>
@@ -3040,23 +2988,23 @@
     </row>
     <row r="3">
       <c r="A3" s="24"/>
-      <c r="B3" s="33" t="s">
+      <c r="B3" s="32" t="s">
         <v>15</v>
       </c>
       <c r="C3" s="24"/>
-      <c r="D3" s="33" t="s">
+      <c r="D3" s="32" t="s">
         <v>15</v>
       </c>
       <c r="E3" s="24"/>
-      <c r="F3" s="33" t="s">
+      <c r="F3" s="32" t="s">
         <v>15</v>
       </c>
       <c r="G3" s="24"/>
-      <c r="H3" s="33" t="s">
+      <c r="H3" s="32" t="s">
         <v>15</v>
       </c>
       <c r="I3" s="24"/>
-      <c r="J3" s="33" t="s">
+      <c r="J3" s="32" t="s">
         <v>15</v>
       </c>
       <c r="K3" s="24"/>
@@ -3082,12 +3030,12 @@
         <v>16</v>
       </c>
       <c r="C4" s="24"/>
-      <c r="D4" s="34" t="s">
+      <c r="D4" s="33" t="s">
         <v>42</v>
       </c>
       <c r="E4" s="24"/>
-      <c r="F4" s="35" t="s">
-        <v>54</v>
+      <c r="F4" s="34" t="s">
+        <v>51</v>
       </c>
       <c r="G4" s="24"/>
       <c r="H4" s="21" t="s">
@@ -3166,7 +3114,7 @@
         <v>30</v>
       </c>
       <c r="I6" s="24"/>
-      <c r="J6" s="34" t="s">
+      <c r="J6" s="33" t="s">
         <v>46</v>
       </c>
       <c r="K6" s="24"/>
@@ -3198,7 +3146,7 @@
       <c r="G7" s="24"/>
       <c r="H7" s="24"/>
       <c r="I7" s="24"/>
-      <c r="J7" s="34" t="s">
+      <c r="J7" s="33" t="s">
         <v>47</v>
       </c>
       <c r="K7" s="24"/>
@@ -3230,7 +3178,7 @@
       <c r="G8" s="24"/>
       <c r="H8" s="24"/>
       <c r="I8" s="24"/>
-      <c r="J8" s="34" t="s">
+      <c r="J8" s="33" t="s">
         <v>48</v>
       </c>
       <c r="K8" s="24"/>
@@ -3556,24 +3504,24 @@
     </row>
     <row r="19">
       <c r="A19" s="24"/>
-      <c r="B19" s="33" t="s">
+      <c r="B19" s="32" t="s">
         <v>15</v>
       </c>
       <c r="C19" s="24"/>
-      <c r="D19" s="36" t="s">
-        <v>58</v>
+      <c r="D19" s="35" t="s">
+        <v>56</v>
       </c>
       <c r="E19" s="24"/>
-      <c r="F19" s="37" t="s">
+      <c r="F19" s="36" t="s">
         <v>84</v>
       </c>
       <c r="G19" s="24"/>
-      <c r="H19" s="38" t="s">
+      <c r="H19" s="37" t="s">
         <v>85</v>
       </c>
       <c r="I19" s="24"/>
-      <c r="J19" s="35" t="s">
-        <v>54</v>
+      <c r="J19" s="34" t="s">
+        <v>51</v>
       </c>
       <c r="K19" s="24"/>
       <c r="L19" s="24"/>
@@ -3602,15 +3550,15 @@
         <v>86</v>
       </c>
       <c r="E20" s="24"/>
-      <c r="F20" s="39" t="s">
+      <c r="F20" s="38" t="s">
         <v>87</v>
       </c>
       <c r="G20" s="24"/>
-      <c r="H20" s="39" t="s">
+      <c r="H20" s="38" t="s">
         <v>88</v>
       </c>
       <c r="I20" s="24"/>
-      <c r="J20" s="39" t="s">
+      <c r="J20" s="38" t="s">
         <v>89</v>
       </c>
       <c r="K20" s="24"/>
@@ -3632,7 +3580,7 @@
     </row>
     <row r="21" ht="15.75" customHeight="1">
       <c r="A21" s="24"/>
-      <c r="B21" s="34" t="s">
+      <c r="B21" s="33" t="s">
         <v>42</v>
       </c>
       <c r="C21" s="24"/>
@@ -3790,15 +3738,15 @@
     </row>
     <row r="26" ht="15.75" customHeight="1">
       <c r="A26" s="24"/>
-      <c r="B26" s="34" t="s">
+      <c r="B26" s="33" t="s">
         <v>42</v>
       </c>
       <c r="C26" s="24"/>
-      <c r="D26" s="34" t="s">
+      <c r="D26" s="33" t="s">
         <v>42</v>
       </c>
       <c r="E26" s="24"/>
-      <c r="F26" s="34" t="s">
+      <c r="F26" s="33" t="s">
         <v>42</v>
       </c>
       <c r="G26" s="24"/>
@@ -3824,12 +3772,12 @@
     </row>
     <row r="27" ht="15.75" customHeight="1">
       <c r="A27" s="24"/>
-      <c r="B27" s="35" t="s">
-        <v>54</v>
+      <c r="B27" s="34" t="s">
+        <v>51</v>
       </c>
       <c r="C27" s="24"/>
       <c r="D27" s="21" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="E27" s="24"/>
       <c r="F27" s="21" t="s">
@@ -3862,7 +3810,7 @@
         <v>30</v>
       </c>
       <c r="C28" s="24"/>
-      <c r="D28" s="39" t="s">
+      <c r="D28" s="38" t="s">
         <v>94</v>
       </c>
       <c r="E28" s="24"/>
@@ -3896,8 +3844,8 @@
         <v>30</v>
       </c>
       <c r="C29" s="24"/>
-      <c r="D29" s="36" t="s">
-        <v>58</v>
+      <c r="D29" s="35" t="s">
+        <v>56</v>
       </c>
       <c r="E29" s="24"/>
       <c r="F29" s="21" t="s">
@@ -3928,7 +3876,7 @@
       <c r="A30" s="24"/>
       <c r="B30" s="24"/>
       <c r="C30" s="24"/>
-      <c r="D30" s="37" t="s">
+      <c r="D30" s="36" t="s">
         <v>97</v>
       </c>
       <c r="E30" s="24"/>
@@ -3960,7 +3908,7 @@
       <c r="A31" s="24"/>
       <c r="B31" s="24"/>
       <c r="C31" s="24"/>
-      <c r="D31" s="38" t="s">
+      <c r="D31" s="37" t="s">
         <v>99</v>
       </c>
       <c r="E31" s="24"/>
@@ -3993,7 +3941,7 @@
       <c r="B32" s="24"/>
       <c r="C32" s="24"/>
       <c r="D32" s="21" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="E32" s="24"/>
       <c r="F32" s="24"/>
@@ -4023,7 +3971,7 @@
       <c r="B33" s="24"/>
       <c r="C33" s="24"/>
       <c r="D33" s="21" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="E33" s="24"/>
       <c r="F33" s="24"/>
